--- a/物品リスト.xlsx
+++ b/物品リスト.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20228"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\マイドライブ\窓枠プリンター\引き渡しデータ\github\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD37F753-4720-415F-BED4-AB70AA062A62}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="120" windowWidth="15075" windowHeight="6630"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20500" windowHeight="9110" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="45">
   <si>
     <t>部品データ</t>
   </si>
@@ -142,17 +148,31 @@
   </si>
   <si>
     <t>28BYJ-48 12Vタイプ</t>
+  </si>
+  <si>
+    <t>3フィラメント混合ノズル</t>
+    <rPh sb="7" eb="9">
+      <t>コンゴウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Diamond Extruder</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>https://ja.aliexpress.com/item/Diamond-3D-Printer-Extruder-Hotend-3D-V6-heatsink-3-IN-1-OUT-Multi-Nozzle-KOSSEL-full/32779018878.html?ws_ab_test=searchweb0_0,searchweb201602_2_10152_10065_10151_10344_10068_10869_10342_10868_10343_10340_10059_10341_10696_100031_10084_10083_10103_10618_10624_10307_10623_10622_10621_10620,searchweb201603_35,ppcSwitch_5&amp;algo_expid=6185831c-0c70-4066-93d3-973702570272-2&amp;algo_pvid=6185831c-0c70-4066-93d3-973702570272&amp;priceBeautifyAB=0</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -161,7 +181,7 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="Calibri"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -171,6 +191,13 @@
       <color rgb="FF111111"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -222,10 +249,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
@@ -237,12 +264,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office ​​テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -284,7 +314,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -317,9 +347,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -352,6 +399,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -527,27 +591,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:F22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B2:F23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="33.140625" customWidth="1"/>
-    <col min="3" max="3" width="18.42578125" customWidth="1"/>
+    <col min="2" max="2" width="33.1796875" customWidth="1"/>
+    <col min="3" max="3" width="18.453125" customWidth="1"/>
     <col min="4" max="4" width="9" customWidth="1"/>
-    <col min="5" max="5" width="36.7109375" customWidth="1"/>
+    <col min="5" max="5" width="36.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6">
+    <row r="2" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="2:6">
+    <row r="4" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B4" s="1" t="s">
         <v>3</v>
       </c>
@@ -560,9 +624,9 @@
       <c r="E4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="5"/>
-    </row>
-    <row r="5" spans="2:6">
+      <c r="F4" s="4"/>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B5" s="1" t="s">
         <v>1</v>
       </c>
@@ -570,7 +634,7 @@
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
     </row>
-    <row r="6" spans="2:6">
+    <row r="6" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>2</v>
       </c>
@@ -578,13 +642,13 @@
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
     </row>
-    <row r="7" spans="2:6">
+    <row r="7" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
     </row>
-    <row r="8" spans="2:6">
+    <row r="8" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
         <v>39</v>
       </c>
@@ -596,7 +660,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="2:6">
+    <row r="9" spans="2:6" ht="13.5" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
         <v>32</v>
       </c>
@@ -608,7 +672,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="2:6">
+    <row r="10" spans="2:6" ht="13.5" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
         <v>29</v>
       </c>
@@ -620,7 +684,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="2:6">
+    <row r="11" spans="2:6" ht="13.5" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
         <v>33</v>
       </c>
@@ -632,7 +696,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="2:6">
+    <row r="12" spans="2:6" ht="13.5" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
         <v>34</v>
       </c>
@@ -644,7 +708,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="2:6">
+    <row r="13" spans="2:6" ht="13.5" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
         <v>26</v>
       </c>
@@ -656,7 +720,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="2:6">
+    <row r="14" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B14" s="1" t="s">
         <v>23</v>
       </c>
@@ -666,7 +730,7 @@
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
     </row>
-    <row r="15" spans="2:6">
+    <row r="15" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B15" s="1" t="s">
         <v>6</v>
       </c>
@@ -677,9 +741,9 @@
       <c r="E15" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F15" s="6"/>
-    </row>
-    <row r="16" spans="2:6">
+      <c r="F15" s="5"/>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
@@ -687,7 +751,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="2:6">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1" t="s">
@@ -697,56 +761,69 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="2:6">
-      <c r="F18" s="6"/>
-    </row>
-    <row r="19" spans="2:6">
-      <c r="B19" t="s">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B18" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D18" s="1"/>
+      <c r="E18" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="F19" s="5"/>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B20" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="2:6">
-      <c r="B20" s="1" t="s">
+    <row r="21" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B21" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="1"/>
-      <c r="E20" s="2" t="s">
+      <c r="D21" s="1"/>
+      <c r="E21" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="21" spans="2:6">
-      <c r="B21" s="1" t="s">
+    <row r="22" spans="2:6" ht="13.5" x14ac:dyDescent="0.25">
+      <c r="B22" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D21" s="1"/>
-      <c r="E21" s="4" t="s">
+      <c r="D22" s="1"/>
+      <c r="E22" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="2:6">
-      <c r="B22" s="1" t="s">
+    <row r="23" spans="2:6" ht="13.5" x14ac:dyDescent="0.25">
+      <c r="B23" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C23" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D22" s="1"/>
-      <c r="E22" s="4" t="s">
+      <c r="D23" s="1"/>
+      <c r="E23" s="3" t="s">
         <v>19</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3"/>
   <hyperlinks>
-    <hyperlink ref="E15" r:id="rId1"/>
-    <hyperlink ref="E16" r:id="rId2"/>
-    <hyperlink ref="E17" r:id="rId3"/>
-    <hyperlink ref="E20" r:id="rId4"/>
+    <hyperlink ref="E15" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="E16" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="E17" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="E21" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId5"/>
@@ -754,25 +831,27 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <sheetData/>
+  <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <sheetData/>
+  <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/物品リスト.xlsx
+++ b/物品リスト.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20325"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\マイドライブ\窓枠プリンター\引き渡しデータ\github\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD37F753-4720-415F-BED4-AB70AA062A62}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12C25D15-24B7-44FC-927D-245EE3618355}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20500" windowHeight="9110" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20510" windowHeight="9110" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="99">
   <si>
     <t>部品データ</t>
   </si>
@@ -36,9 +36,6 @@
     <t>部品・材料</t>
   </si>
   <si>
-    <t>部品名</t>
-  </si>
-  <si>
     <t>購入参考URL</t>
   </si>
   <si>
@@ -90,9 +87,6 @@
     <t>コントロールパネル</t>
   </si>
   <si>
-    <t>制御部</t>
-  </si>
-  <si>
     <t>ベアリング</t>
   </si>
   <si>
@@ -136,9 +130,6 @@
   </si>
   <si>
     <t>http://amzn.asia/aPkcgBb</t>
-  </si>
-  <si>
-    <t> http://amzn.asia/8XIWpak</t>
   </si>
   <si>
     <t>小型ステッピングモーター</t>
@@ -154,21 +145,193 @@
     <rPh sb="7" eb="9">
       <t>コンゴウ</t>
     </rPh>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>Diamond Extruder</t>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>追加パーツ</t>
+  </si>
+  <si>
+    <t>http://amzn.asia/8XIWpak</t>
+  </si>
+  <si>
+    <t>http://amzn.asia/d/3IZjlXz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JSTコネクタ キット </t>
+  </si>
+  <si>
+    <t>http://amzn.asia/d/eHFy7Kc</t>
+  </si>
+  <si>
+    <t>六角穴付きボルトセット</t>
+  </si>
+  <si>
+    <t>六角穴付組み込みボルトセット</t>
+  </si>
+  <si>
+    <t>http://amzn.asia/d/cQYwSAI</t>
+  </si>
+  <si>
+    <t>http://amzn.asia/d/aryfefD</t>
+  </si>
+  <si>
+    <t>M3/4/5 六角穴付きボルト セット</t>
+  </si>
+  <si>
+    <t>XT60オスメスコネクタ</t>
+  </si>
+  <si>
+    <t>http://amzn.asia/d/fPNdAga</t>
+  </si>
+  <si>
+    <t>http://amzn.asia/d/7e0MaCI</t>
+  </si>
+  <si>
+    <t>ジャンプワイヤ</t>
+  </si>
+  <si>
+    <t>押出厚型ブラケット</t>
+  </si>
+  <si>
+    <t>MISUMI</t>
+  </si>
+  <si>
+    <t>部品名・型番</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> HBLTS5</t>
+  </si>
+  <si>
+    <t>https://jp.misumi-ec.com/vona2/detail/110300438050/?HissuCode=HBLTS5</t>
+  </si>
+  <si>
+    <t>今回未使用</t>
+  </si>
+  <si>
+    <t>検討・改良用パーツ</t>
+  </si>
+  <si>
+    <t>電源用スイッチ</t>
+  </si>
+  <si>
+    <t>https://www.sengoku.co.jp/mod/sgk_cart/detail.php?code=EEHD-0GE3</t>
+  </si>
+  <si>
+    <t>千石電商</t>
+  </si>
+  <si>
+    <t>FABOOL Laser Mini 1.6W</t>
+  </si>
+  <si>
+    <t>レーザーカッター</t>
+  </si>
+  <si>
+    <t>メーカー</t>
+  </si>
+  <si>
+    <t>SmartDIYs</t>
+  </si>
+  <si>
+    <t>https://shop.smartdiys.com/products/detail.php?product_id=773</t>
+  </si>
+  <si>
+    <t>https://shop.smartdiys.com/products/detail.php?product_id=779</t>
+  </si>
+  <si>
+    <t>拡張フレームセット(加工エリア1m×1m)</t>
+  </si>
+  <si>
+    <t>Z機構改造パーツ</t>
+  </si>
+  <si>
+    <t>電子制御部</t>
+  </si>
+  <si>
+    <t>オヤイデ電気</t>
+  </si>
+  <si>
+    <t>https://oyaide.com/catalog/products/p-2201.html</t>
+  </si>
+  <si>
+    <t>電源用ケーブルAWG16(1.25sq)</t>
+  </si>
+  <si>
+    <t>5ｍ程度</t>
+  </si>
+  <si>
+    <t>http://akizukidenshi.com/catalog/g/gC-09311/</t>
+  </si>
+  <si>
+    <t>秋月電子</t>
+  </si>
+  <si>
+    <t>２．１ｍｍ標準ＤＣプラグ（５Ａ）</t>
+  </si>
+  <si>
+    <t>オプション</t>
+  </si>
+  <si>
+    <t>オプション・電源端子を別途使う場合のみ</t>
+  </si>
+  <si>
+    <t>http://akizukidenshi.com/catalog/g/gP-02439/</t>
+  </si>
+  <si>
+    <t>コントロールボード冷却ファン</t>
+  </si>
+  <si>
+    <t>１２Ｖ３０ｍｍ角　ＤＣファン</t>
+  </si>
+  <si>
+    <t>個数</t>
+  </si>
+  <si>
+    <t>1.75mm用</t>
+  </si>
+  <si>
+    <t>3mm用</t>
+  </si>
+  <si>
+    <t>(5個セット)</t>
+  </si>
+  <si>
+    <t>マシン剛性強化パーツ</t>
+  </si>
+  <si>
+    <t>https://ja.aliexpress.com/store/product/50-m3-m4-m5-t-2020/3108017_32834673316.html</t>
+  </si>
+  <si>
+    <t>AliExpress</t>
+  </si>
+  <si>
+    <t>M3後入れナット</t>
+  </si>
+  <si>
+    <t>M4後入れナット</t>
+  </si>
+  <si>
+    <t>M5後入れナット</t>
+  </si>
+  <si>
+    <t>代用可</t>
+  </si>
+  <si>
+    <t>〇</t>
   </si>
   <si>
     <t>https://ja.aliexpress.com/item/Diamond-3D-Printer-Extruder-Hotend-3D-V6-heatsink-3-IN-1-OUT-Multi-Nozzle-KOSSEL-full/32779018878.html?ws_ab_test=searchweb0_0,searchweb201602_2_10152_10065_10151_10344_10068_10869_10342_10868_10343_10340_10059_10341_10696_100031_10084_10083_10103_10618_10624_10307_10623_10622_10621_10620,searchweb201603_35,ppcSwitch_5&amp;algo_expid=6185831c-0c70-4066-93d3-973702570272-2&amp;algo_pvid=6185831c-0c70-4066-93d3-973702570272&amp;priceBeautifyAB=0</t>
+    <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -187,12 +350,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF111111"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="6"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
@@ -208,7 +365,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -231,28 +388,25 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
@@ -592,241 +746,669 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:F23"/>
+  <dimension ref="B2:H54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+    <sheetView tabSelected="1" topLeftCell="B12" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="F54" sqref="F54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="33.1796875" customWidth="1"/>
-    <col min="3" max="3" width="18.453125" customWidth="1"/>
-    <col min="4" max="4" width="9" customWidth="1"/>
-    <col min="5" max="5" width="36.7265625" customWidth="1"/>
+    <col min="2" max="2" width="36.81640625" customWidth="1"/>
+    <col min="3" max="3" width="29.453125" customWidth="1"/>
+    <col min="4" max="4" width="5.81640625" customWidth="1"/>
+    <col min="5" max="5" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="36.7265625" customWidth="1"/>
+    <col min="7" max="7" width="11.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B4" s="1" t="s">
+    <row r="5" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B5" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="1"/>
+      <c r="G5" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B6" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D6" s="1">
+        <v>1</v>
+      </c>
+      <c r="E6" s="1"/>
+      <c r="F6" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B7" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D7" s="1">
+        <v>1</v>
+      </c>
+      <c r="E7" s="1"/>
+      <c r="F7" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="6"/>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B9" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B10" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C10" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F4" s="4"/>
-    </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B5" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-    </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B6" s="1" t="s">
+      <c r="G10" s="4"/>
+      <c r="H10" s="1"/>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B11" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B12" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-    </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-    </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B8" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="9" spans="2:6" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="B9" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D9" s="1"/>
-      <c r="E9" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="10" spans="2:6" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="B10" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D10" s="1"/>
-      <c r="E10" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="11" spans="2:6" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="B11" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D11" s="1"/>
-      <c r="E11" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="12" spans="2:6" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="B12" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B14" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D12" s="1"/>
-      <c r="E12" s="3" t="s">
+      <c r="C14" s="1" t="s">
         <v>38</v>
-      </c>
-    </row>
-    <row r="13" spans="2:6" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="B13" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D13" s="1"/>
-      <c r="E13" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B14" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>24</v>
       </c>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
-    </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="F14" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B15" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D15" s="1">
+        <v>1</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B16" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D16" s="1">
+        <v>1</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B17" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D17" s="1">
+        <v>1</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B18" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D18" s="1">
+        <v>1</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B19" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B20" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B21" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="D21" s="7"/>
+      <c r="E21" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F21" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D15" s="1"/>
-      <c r="E15" s="2" t="s">
+      <c r="G21" s="4"/>
+      <c r="H21" s="1"/>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B22" s="8"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F15" s="5"/>
-    </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="2" t="s">
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B23" s="8"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1" t="s">
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="G25" s="3"/>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B26" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B27" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E17" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B18" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="C18" s="6" t="s">
+      <c r="C27" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D27" s="1">
+        <v>1</v>
+      </c>
+      <c r="E27" s="1"/>
+      <c r="F27" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B28" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D28" s="1">
+        <v>1</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+    </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B29" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D29" s="1">
+        <v>1</v>
+      </c>
+      <c r="E29" s="1"/>
+      <c r="F29" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+    </row>
+    <row r="30" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B30" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1">
+        <v>1</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="31" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B31" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D31" s="4"/>
+      <c r="E31" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="32" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B32" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C32" s="4"/>
+      <c r="D32" s="4">
+        <v>1</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="G32" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="33" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B33" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1">
+        <v>1</v>
+      </c>
+      <c r="E33" s="1"/>
+      <c r="F33" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="34" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B34" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D34" s="1">
+        <v>2</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="35" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B35" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1">
+        <v>1</v>
+      </c>
+      <c r="E35" s="1"/>
+      <c r="F35" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G35" s="1"/>
+      <c r="H35" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="41" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B41" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="42" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B42" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
+      <c r="F42" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D18" s="1"/>
-      <c r="E18" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="F19" s="5"/>
-    </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B20" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B21" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D21" s="1"/>
-      <c r="E21" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="22" spans="2:6" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="B22" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D22" s="1"/>
-      <c r="E22" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="23" spans="2:6" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="B23" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D23" s="1"/>
-      <c r="E23" s="3" t="s">
-        <v>19</v>
+      <c r="G42" s="1"/>
+      <c r="H42" s="1"/>
+    </row>
+    <row r="43" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B43" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="1"/>
+      <c r="F43" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G43" s="1"/>
+      <c r="H43" s="1"/>
+    </row>
+    <row r="44" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B44" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C44" s="1"/>
+      <c r="D44" s="1"/>
+      <c r="E44" s="1"/>
+      <c r="F44" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G44" s="1"/>
+      <c r="H44" s="1"/>
+    </row>
+    <row r="45" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B45" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C45" s="1"/>
+      <c r="D45" s="1"/>
+      <c r="E45" s="1"/>
+      <c r="F45" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G45" s="1"/>
+      <c r="H45" s="1"/>
+    </row>
+    <row r="46" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B46" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C46" s="1"/>
+      <c r="D46" s="1">
+        <v>1</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="G46" s="4"/>
+      <c r="H46" s="1"/>
+    </row>
+    <row r="47" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B47" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C47" s="1"/>
+      <c r="D47" s="1">
+        <v>1</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="G47" s="1"/>
+      <c r="H47" s="1"/>
+    </row>
+    <row r="48" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B48" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C48" s="1"/>
+      <c r="D48" s="1">
+        <v>1</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="G48" s="1"/>
+      <c r="H48" s="1"/>
+    </row>
+    <row r="49" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B49" s="5"/>
+      <c r="C49" s="5"/>
+      <c r="D49" s="5"/>
+      <c r="E49" s="5"/>
+      <c r="F49" s="6"/>
+    </row>
+    <row r="50" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B50" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="51" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B51" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D51" s="1"/>
+      <c r="E51" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="53" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B53" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="54" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B54" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D54" s="4"/>
+      <c r="E54" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>98</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3"/>
+  <mergeCells count="3">
+    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="C21:C23"/>
+    <mergeCell ref="E21:E23"/>
+  </mergeCells>
+  <phoneticPr fontId="2"/>
   <hyperlinks>
-    <hyperlink ref="E15" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="E16" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="E17" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="E21" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="F21" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="F22" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="F23" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="F27" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="F15" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="F16" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="F17" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="F18" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="F19" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="F42" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="F44" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="F43" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="F45" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="F33" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="F35" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="F51" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="F30" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="F28" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="F29" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="F14" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="F6" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="F7" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="F31" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="F32" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="F34" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="F54" r:id="rId26" display="https://ja.aliexpress.com/item/Diamond-3D-Printer-Extruder-Hotend-3D-V6-heatsink-3-IN-1-OUT-Multi-Nozzle-KOSSEL-full/32779018878.html?ws_ab_test=searchweb0_0,searchweb201602_2_10152_10065_10151_10344_10068_10869_10342_10868_10343_10340_10059_10341_10696_100031_10084_10083_10103_10618_10624_10307_10623_10622_10621_10620,searchweb201603_35,ppcSwitch_5&amp;algo_expid=6185831c-0c70-4066-93d3-973702570272-2&amp;algo_pvid=6185831c-0c70-4066-93d3-973702570272&amp;priceBeautifyAB=0" xr:uid="{E4B056A0-B5A2-42BD-B245-EACB64D7DCCB}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId27"/>
 </worksheet>
 </file>
 
@@ -838,7 +1420,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <sheetData/>
-  <phoneticPr fontId="3"/>
+  <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -851,7 +1433,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <sheetData/>
-  <phoneticPr fontId="3"/>
+  <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/物品リスト.xlsx
+++ b/物品リスト.xlsx
@@ -1,28 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20325"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\マイドライブ\窓枠プリンター\引き渡しデータ\github\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12C25D15-24B7-44FC-927D-245EE3618355}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20510" windowHeight="9110" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20505" windowHeight="9105"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="部品リスト" sheetId="2" r:id="rId1"/>
+    <sheet name="Fabool公式" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="254">
   <si>
     <t>部品データ</t>
   </si>
@@ -326,16 +320,483 @@
     <t>https://ja.aliexpress.com/item/Diamond-3D-Printer-Extruder-Hotend-3D-V6-heatsink-3-IN-1-OUT-Multi-Nozzle-KOSSEL-full/32779018878.html?ws_ab_test=searchweb0_0,searchweb201602_2_10152_10065_10151_10344_10068_10869_10342_10868_10343_10340_10059_10341_10696_100031_10084_10083_10103_10618_10624_10307_10623_10622_10621_10620,searchweb201603_35,ppcSwitch_5&amp;algo_expid=6185831c-0c70-4066-93d3-973702570272-2&amp;algo_pvid=6185831c-0c70-4066-93d3-973702570272&amp;priceBeautifyAB=0</t>
     <phoneticPr fontId="2"/>
   </si>
+  <si>
+    <t>20mm角アルミフレーム</t>
+  </si>
+  <si>
+    <t>20mm40mmアルミフレーム</t>
+  </si>
+  <si>
+    <t>URL</t>
+  </si>
+  <si>
+    <t>マシン本体</t>
+  </si>
+  <si>
+    <t>kyuban_0521 V21</t>
+  </si>
+  <si>
+    <t>吸盤固定用パーツ</t>
+  </si>
+  <si>
+    <t>３Dプリント品</t>
+  </si>
+  <si>
+    <t>キットに含まれず別途用意する物品</t>
+  </si>
+  <si>
+    <t>吸盤</t>
+  </si>
+  <si>
+    <t>型番・ファイル名</t>
+  </si>
+  <si>
+    <t>FLM_idler pulley plate</t>
+  </si>
+  <si>
+    <t>プーリー固定用パーツ</t>
+  </si>
+  <si>
+    <t>モーター固定用パーツY軸</t>
+  </si>
+  <si>
+    <t>FLM_motor mount plate y-axis</t>
+  </si>
+  <si>
+    <t>FLM_motor mount plate x-axis</t>
+  </si>
+  <si>
+    <t>モーター固定用パーツX軸</t>
+  </si>
+  <si>
+    <t>FABOOL　基本キットから仕様している物</t>
+  </si>
+  <si>
+    <t>FABOOL　１ｍ拡張キットから仕様している物</t>
+  </si>
+  <si>
+    <t>M5　Tナット（先入れ）</t>
+  </si>
+  <si>
+    <t>https://www.smartdiys.com/manual/fabool-laser-mini-service-parts/</t>
+  </si>
+  <si>
+    <t>ブラケット</t>
+  </si>
+  <si>
+    <t>FLM_mini v plate_L_2040_1m</t>
+  </si>
+  <si>
+    <t>FLM_mini v plate_R_2040_1m</t>
+  </si>
+  <si>
+    <t>V-slot 1170mm</t>
+  </si>
+  <si>
+    <t>V-slot 1210mm</t>
+  </si>
+  <si>
+    <t>https://www.smartdiys.com/manual/category/fabool-extension-frame/</t>
+  </si>
+  <si>
+    <t>拡張キット組み立てURL</t>
+  </si>
+  <si>
+    <t>FLM_mini v plate_C</t>
+  </si>
+  <si>
+    <t>レーザー取り付けプレート</t>
+  </si>
+  <si>
+    <t>品名</t>
+  </si>
+  <si>
+    <t>販売単位</t>
+  </si>
+  <si>
+    <t>価格(税込)</t>
+  </si>
+  <si>
+    <t>1.6Wレーザーユニット（レーザー基板付属）</t>
+  </si>
+  <si>
+    <t>16,740円</t>
+  </si>
+  <si>
+    <t>3.5Wレーザーユニット（レーザー基板付属）</t>
+  </si>
+  <si>
+    <t>36,504円</t>
+  </si>
+  <si>
+    <t>コントロール基板</t>
+  </si>
+  <si>
+    <t>7,980円</t>
+  </si>
+  <si>
+    <t>V-slot 450mm</t>
+  </si>
+  <si>
+    <t>2,700円</t>
+  </si>
+  <si>
+    <t>V-slot 410mm</t>
+  </si>
+  <si>
+    <t>2,484円</t>
+  </si>
+  <si>
+    <t>1,728円</t>
+  </si>
+  <si>
+    <t>タイミングプーリー</t>
+  </si>
+  <si>
+    <t>1,274円</t>
+  </si>
+  <si>
+    <t>GT2 30歯</t>
+  </si>
+  <si>
+    <t>X軸タイミングベルト</t>
+  </si>
+  <si>
+    <t>850円</t>
+  </si>
+  <si>
+    <t>GT2 長さ1060m</t>
+  </si>
+  <si>
+    <t>Y軸タイミングベルト</t>
+  </si>
+  <si>
+    <t>800円</t>
+  </si>
+  <si>
+    <t>GT2 長さ1000m</t>
+  </si>
+  <si>
+    <t>光学ステージ</t>
+  </si>
+  <si>
+    <t>1,760円</t>
+  </si>
+  <si>
+    <t>光学キャリア</t>
+  </si>
+  <si>
+    <t>PCBケース</t>
+  </si>
+  <si>
+    <t>mini v plate_C</t>
+  </si>
+  <si>
+    <t>3,240円</t>
+  </si>
+  <si>
+    <t>組立済</t>
+  </si>
+  <si>
+    <t>mini v plate_L</t>
+  </si>
+  <si>
+    <t>3,110円</t>
+  </si>
+  <si>
+    <t>mini v plate_R</t>
+  </si>
+  <si>
+    <t>3,780円</t>
+  </si>
+  <si>
+    <t>idler pulley plate</t>
+  </si>
+  <si>
+    <t>1,620円</t>
+  </si>
+  <si>
+    <t>ACアダプタ</t>
+  </si>
+  <si>
+    <t>2,160円</t>
+  </si>
+  <si>
+    <t>ACケーブル</t>
+  </si>
+  <si>
+    <t>518円</t>
+  </si>
+  <si>
+    <t>USBケーブル</t>
+  </si>
+  <si>
+    <t>864円</t>
+  </si>
+  <si>
+    <t>ステッピングモーター</t>
+  </si>
+  <si>
+    <t>1,922円</t>
+  </si>
+  <si>
+    <t>DCファン</t>
+  </si>
+  <si>
+    <t>540円</t>
+  </si>
+  <si>
+    <t>PCBケース用</t>
+  </si>
+  <si>
+    <t>PCBケーブル</t>
+  </si>
+  <si>
+    <t>Laserケーブル</t>
+  </si>
+  <si>
+    <t>1,382円</t>
+  </si>
+  <si>
+    <t>X-Axisケーブル</t>
+  </si>
+  <si>
+    <t>950円</t>
+  </si>
+  <si>
+    <t>Y-Axis-Rケーブル</t>
+  </si>
+  <si>
+    <t>Y-Axis-Lケーブル</t>
+  </si>
+  <si>
+    <t>Foot Switchケーブル</t>
+  </si>
+  <si>
+    <t>842円</t>
+  </si>
+  <si>
+    <t>保護メガネ</t>
+  </si>
+  <si>
+    <t>2,462円</t>
+  </si>
+  <si>
+    <t>高さ調整用アクリル</t>
+  </si>
+  <si>
+    <t>216円</t>
+  </si>
+  <si>
+    <t>結束バンド固定具</t>
+  </si>
+  <si>
+    <t>結束バンド</t>
+  </si>
+  <si>
+    <t>410円</t>
+  </si>
+  <si>
+    <t>mini v wheelユニット</t>
+  </si>
+  <si>
+    <t>1,058円</t>
+  </si>
+  <si>
+    <t>smooth idler pulleyユニット</t>
+  </si>
+  <si>
+    <t>偏心スペーサー</t>
+  </si>
+  <si>
+    <t>907円</t>
+  </si>
+  <si>
+    <t>motor mount plate x-axis</t>
+  </si>
+  <si>
+    <t>motor mount plate y-axis</t>
+  </si>
+  <si>
+    <t>M3×6 六角穴付き皿ボルト</t>
+  </si>
+  <si>
+    <t>PCBケース用ネジ</t>
+  </si>
+  <si>
+    <t>M6×8 六角穴付きボルト</t>
+  </si>
+  <si>
+    <t>M5×8 低頭ボルト</t>
+  </si>
+  <si>
+    <t>M5×6 低頭ボルト</t>
+  </si>
+  <si>
+    <t>M4×6 六角穴付きボルト</t>
+  </si>
+  <si>
+    <t>130円</t>
+  </si>
+  <si>
+    <t>M3×10 六角穴付きボルト</t>
+  </si>
+  <si>
+    <t>M3×6 六角穴付きボルト</t>
+  </si>
+  <si>
+    <t>M3×4 六角穴付きボルト</t>
+  </si>
+  <si>
+    <t>M2×10 六角穴付きボルト</t>
+  </si>
+  <si>
+    <t>M5 Tナット</t>
+  </si>
+  <si>
+    <t>GT2 長さ2m以上</t>
+  </si>
+  <si>
+    <t>NEMA17</t>
+  </si>
+  <si>
+    <t>アルミフレーム固定用L</t>
+  </si>
+  <si>
+    <t>アルミフレーム固定用R</t>
+  </si>
+  <si>
+    <t>http://amzn.asia/d/f4iNQeI</t>
+  </si>
+  <si>
+    <t>Amazon</t>
+  </si>
+  <si>
+    <t>バキュームリフター</t>
+  </si>
+  <si>
+    <t>Z機構
+＆
+押出機</t>
+  </si>
+  <si>
+    <t>Mech_switch_cover</t>
+  </si>
+  <si>
+    <t>Y軸用リミットスイッチ固定用パーツ</t>
+  </si>
+  <si>
+    <t>レーザーカット品</t>
+  </si>
+  <si>
+    <t>X軸用リミットスイッチ固定用パーツ</t>
+  </si>
+  <si>
+    <t>Mech_switch_cover_Y</t>
+  </si>
+  <si>
+    <t>y_belt_base</t>
+  </si>
+  <si>
+    <t>y_belt_tens</t>
+  </si>
+  <si>
+    <t>ベルトテンション調整機構1</t>
+  </si>
+  <si>
+    <t>ベルトテンション調整機構2</t>
+  </si>
+  <si>
+    <t>https://www.sengoku.co.jp/mod/sgk_cart/detail.php?code=EEHD-4JWW</t>
+  </si>
+  <si>
+    <t>千石電商など</t>
+  </si>
+  <si>
+    <t>（外形19mm,内径6mm)</t>
+  </si>
+  <si>
+    <t>bearing-cover</t>
+  </si>
+  <si>
+    <t>ベアリングカバー（厚紙1㎜ or アクリル1mm)</t>
+  </si>
+  <si>
+    <t>i</t>
+  </si>
+  <si>
+    <t>MB_Case2</t>
+  </si>
+  <si>
+    <t>コントロールボードケース１</t>
+  </si>
+  <si>
+    <t>TRIGORILLA_Case_2</t>
+  </si>
+  <si>
+    <t>LCD_cover</t>
+  </si>
+  <si>
+    <t>LCD_Cover_Bottom</t>
+  </si>
+  <si>
+    <t>LCD_Switch_Bottom</t>
+  </si>
+  <si>
+    <t>LCD_Plate</t>
+  </si>
+  <si>
+    <t>コントロールボードケース2</t>
+  </si>
+  <si>
+    <t>操作パネルケース1</t>
+  </si>
+  <si>
+    <t>操作パネルケース2</t>
+  </si>
+  <si>
+    <t>操作パネルケース3</t>
+  </si>
+  <si>
+    <t>操作パネルケース固定プレート</t>
+  </si>
+  <si>
+    <t>300mm×500mm</t>
+  </si>
+  <si>
+    <t>FABOOL Laser Mini マニュアル</t>
+  </si>
+  <si>
+    <t>保守部品</t>
+  </si>
+  <si>
+    <t>保守部品 価格表</t>
+  </si>
+  <si>
+    <t>参考URL</t>
+  </si>
+  <si>
+    <t>MAST-UL2464-24-4P-10</t>
+  </si>
+  <si>
+    <t>モーター・スイッチケーブル（対数）</t>
+  </si>
+  <si>
+    <t>10m</t>
+  </si>
+  <si>
+    <t>https://jp.misumi-ec.com/vona2/detail/110400411830/?ProductCode=MAST-UL2464-24-8P-10</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -344,28 +805,41 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="6"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="游ゴシック Medium"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -388,12 +862,62 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
@@ -406,6 +930,45 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -426,7 +989,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office ​​テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -468,7 +1031,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -501,26 +1064,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -553,23 +1099,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -745,29 +1274,1956 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H86"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A45" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F57" sqref="F57"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="41.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="255.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:8">
+      <c r="B1" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="2" spans="2:8">
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+    </row>
+    <row r="3" spans="2:8">
+      <c r="B3" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+    </row>
+    <row r="4" spans="2:8">
+      <c r="B4" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+    </row>
+    <row r="5" spans="2:8">
+      <c r="B5" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D5" s="1">
+        <v>2</v>
+      </c>
+      <c r="E5" s="1"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+    </row>
+    <row r="6" spans="2:8">
+      <c r="B6" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D6" s="1">
+        <v>2</v>
+      </c>
+      <c r="E6" s="1"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+    </row>
+    <row r="7" spans="2:8">
+      <c r="B7" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D7" s="1">
+        <v>1</v>
+      </c>
+      <c r="E7" s="1"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+    </row>
+    <row r="8" spans="2:8">
+      <c r="B8" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="D8" s="4">
+        <v>1</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="F8" s="10"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+    </row>
+    <row r="9" spans="2:8">
+      <c r="B9" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1">
+        <v>4</v>
+      </c>
+      <c r="E9" s="1"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+    </row>
+    <row r="10" spans="2:8">
+      <c r="B10" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1">
+        <v>3</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="F10" s="10"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+    </row>
+    <row r="11" spans="2:8">
+      <c r="B11" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="D11" s="1">
+        <v>3</v>
+      </c>
+      <c r="E11" s="1"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+    </row>
+    <row r="12" spans="2:8">
+      <c r="B12" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1">
+        <v>3</v>
+      </c>
+      <c r="E12" s="1"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+    </row>
+    <row r="13" spans="2:8">
+      <c r="B13" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1">
+        <v>9</v>
+      </c>
+      <c r="E13" s="1"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+    </row>
+    <row r="14" spans="2:8" ht="18">
+      <c r="B14" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1">
+        <v>4</v>
+      </c>
+      <c r="E14" s="1"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+    </row>
+    <row r="15" spans="2:8">
+      <c r="B15" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1">
+        <v>16</v>
+      </c>
+      <c r="E15" s="1">
+        <v>10</v>
+      </c>
+      <c r="F15" s="10"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+    </row>
+    <row r="16" spans="2:8">
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+    </row>
+    <row r="17" spans="2:8">
+      <c r="B17" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+    </row>
+    <row r="18" spans="2:8">
+      <c r="B18" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D18" s="1">
+        <v>4</v>
+      </c>
+      <c r="E18" s="1"/>
+      <c r="F18" s="21"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+    </row>
+    <row r="19" spans="2:8">
+      <c r="B19" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D19" s="1">
+        <v>1</v>
+      </c>
+      <c r="E19" s="1"/>
+      <c r="F19" s="21"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+    </row>
+    <row r="20" spans="2:8">
+      <c r="B20" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D20" s="1">
+        <v>1</v>
+      </c>
+      <c r="E20" s="1"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+    </row>
+    <row r="21" spans="2:8">
+      <c r="B21" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="D21" s="1">
+        <v>1</v>
+      </c>
+      <c r="E21" s="1"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+    </row>
+    <row r="22" spans="2:8">
+      <c r="B22" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1">
+        <v>1</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="F22" s="10"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+    </row>
+    <row r="23" spans="2:8">
+      <c r="B23" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1">
+        <v>2</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="F23" s="10"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+    </row>
+    <row r="24" spans="2:8">
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
+    </row>
+    <row r="25" spans="2:8">
+      <c r="B25" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="G25" s="3"/>
+      <c r="H25" s="5"/>
+    </row>
+    <row r="26" spans="2:8">
+      <c r="B26" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C26" s="1"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="5"/>
+    </row>
+    <row r="27" spans="2:8">
+      <c r="G27" s="5"/>
+      <c r="H27" s="5"/>
+    </row>
+    <row r="28" spans="2:8">
+      <c r="B28" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="G28" s="5"/>
+      <c r="H28" s="5"/>
+    </row>
+    <row r="29" spans="2:8">
+      <c r="B29" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="C29" s="16" t="s">
+        <v>216</v>
+      </c>
+      <c r="D29" s="17">
+        <v>8</v>
+      </c>
+      <c r="E29" s="18" t="s">
+        <v>215</v>
+      </c>
+      <c r="F29" s="19" t="s">
+        <v>214</v>
+      </c>
+      <c r="G29" s="24"/>
+      <c r="H29" s="24"/>
+    </row>
+    <row r="30" spans="2:8">
+      <c r="B30" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="C30" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="D30" s="17">
+        <v>8</v>
+      </c>
+      <c r="E30" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="F30" s="22"/>
+      <c r="G30" s="24"/>
+      <c r="H30" s="24"/>
+    </row>
+    <row r="31" spans="2:8">
+      <c r="B31" s="16" t="s">
+        <v>221</v>
+      </c>
+      <c r="C31" s="16" t="s">
+        <v>218</v>
+      </c>
+      <c r="D31" s="17">
+        <v>1</v>
+      </c>
+      <c r="E31" s="18" t="s">
+        <v>220</v>
+      </c>
+      <c r="F31" s="22"/>
+      <c r="G31" s="24"/>
+      <c r="H31" s="24"/>
+    </row>
+    <row r="32" spans="2:8">
+      <c r="B32" s="16" t="s">
+        <v>219</v>
+      </c>
+      <c r="C32" s="16" t="s">
+        <v>222</v>
+      </c>
+      <c r="D32" s="17">
+        <v>1</v>
+      </c>
+      <c r="E32" s="18" t="s">
+        <v>220</v>
+      </c>
+      <c r="F32" s="22"/>
+      <c r="G32" s="24"/>
+      <c r="H32" s="24"/>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="B33" s="16" t="s">
+        <v>225</v>
+      </c>
+      <c r="C33" s="16" t="s">
+        <v>223</v>
+      </c>
+      <c r="D33" s="17">
+        <v>1</v>
+      </c>
+      <c r="E33" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="F33" s="22"/>
+      <c r="G33" s="24"/>
+      <c r="H33" s="24"/>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="B34" s="16" t="s">
+        <v>226</v>
+      </c>
+      <c r="C34" s="16" t="s">
+        <v>224</v>
+      </c>
+      <c r="D34" s="17">
+        <v>1</v>
+      </c>
+      <c r="E34" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="F34" s="23"/>
+      <c r="G34" s="24"/>
+      <c r="H34" s="24"/>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="B35" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C35" s="14" t="s">
+        <v>229</v>
+      </c>
+      <c r="D35" s="15">
+        <v>3</v>
+      </c>
+      <c r="E35" s="20" t="s">
+        <v>228</v>
+      </c>
+      <c r="F35" s="22" t="s">
+        <v>227</v>
+      </c>
+      <c r="G35" s="25"/>
+      <c r="H35" s="24"/>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="B36" s="14" t="s">
+        <v>231</v>
+      </c>
+      <c r="C36" s="14" t="s">
+        <v>230</v>
+      </c>
+      <c r="D36" s="15">
+        <v>3</v>
+      </c>
+      <c r="E36" s="20" t="s">
+        <v>220</v>
+      </c>
+      <c r="F36" s="22"/>
+      <c r="G36" s="24"/>
+      <c r="H36" s="24"/>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="B37" s="14" t="s">
+        <v>234</v>
+      </c>
+      <c r="C37" s="14" t="s">
+        <v>233</v>
+      </c>
+      <c r="D37" s="15">
+        <v>1</v>
+      </c>
+      <c r="E37" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="F37" s="22"/>
+      <c r="G37" s="24"/>
+      <c r="H37" s="24"/>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="B38" s="14" t="s">
+        <v>240</v>
+      </c>
+      <c r="C38" s="14" t="s">
+        <v>235</v>
+      </c>
+      <c r="D38" s="15">
+        <v>1</v>
+      </c>
+      <c r="E38" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="F38" s="22"/>
+      <c r="G38" s="24"/>
+      <c r="H38" s="24"/>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39" t="s">
+        <v>232</v>
+      </c>
+      <c r="B39" s="14" t="s">
+        <v>241</v>
+      </c>
+      <c r="C39" s="14" t="s">
+        <v>236</v>
+      </c>
+      <c r="D39" s="15">
+        <v>1</v>
+      </c>
+      <c r="E39" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="F39" s="22"/>
+      <c r="G39" s="24"/>
+      <c r="H39" s="24"/>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="B40" s="14" t="s">
+        <v>242</v>
+      </c>
+      <c r="C40" s="14" t="s">
+        <v>237</v>
+      </c>
+      <c r="D40" s="15">
+        <v>1</v>
+      </c>
+      <c r="E40" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="F40" s="22"/>
+      <c r="G40" s="24"/>
+      <c r="H40" s="24"/>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="B41" s="14" t="s">
+        <v>243</v>
+      </c>
+      <c r="C41" s="14" t="s">
+        <v>238</v>
+      </c>
+      <c r="D41" s="15">
+        <v>1</v>
+      </c>
+      <c r="E41" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="F41" s="22"/>
+      <c r="G41" s="24"/>
+      <c r="H41" s="24"/>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="A42" t="s">
+        <v>232</v>
+      </c>
+      <c r="B42" s="14" t="s">
+        <v>244</v>
+      </c>
+      <c r="C42" s="14" t="s">
+        <v>239</v>
+      </c>
+      <c r="D42" s="15">
+        <v>1</v>
+      </c>
+      <c r="E42" s="20" t="s">
+        <v>220</v>
+      </c>
+      <c r="F42" s="22"/>
+      <c r="G42" s="24"/>
+      <c r="H42" s="24"/>
+    </row>
+    <row r="43" spans="1:8">
+      <c r="B43" s="14"/>
+      <c r="C43" s="14"/>
+      <c r="D43" s="15"/>
+      <c r="E43" s="20"/>
+      <c r="F43" s="22"/>
+      <c r="G43" s="24"/>
+      <c r="H43" s="24"/>
+    </row>
+    <row r="44" spans="1:8">
+      <c r="B44" s="14"/>
+      <c r="C44" s="14"/>
+      <c r="D44" s="15"/>
+      <c r="E44" s="20"/>
+      <c r="F44" s="22"/>
+      <c r="G44" s="24"/>
+      <c r="H44" s="24"/>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="B45" s="14"/>
+      <c r="C45" s="14"/>
+      <c r="D45" s="15"/>
+      <c r="E45" s="20"/>
+      <c r="F45" s="22"/>
+      <c r="G45" s="24"/>
+      <c r="H45" s="24"/>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="B46" s="14"/>
+      <c r="C46" s="14"/>
+      <c r="D46" s="15"/>
+      <c r="E46" s="20"/>
+      <c r="F46" s="22"/>
+      <c r="G46" s="24"/>
+      <c r="H46" s="24"/>
+    </row>
+    <row r="47" spans="1:8">
+      <c r="G47" s="5"/>
+      <c r="H47" s="5"/>
+    </row>
+    <row r="48" spans="1:8">
+      <c r="G48" s="5"/>
+      <c r="H48" s="5"/>
+    </row>
+    <row r="49" spans="1:8">
+      <c r="A49" s="26" t="s">
+        <v>73</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D49" s="1">
+        <v>1</v>
+      </c>
+      <c r="E49" s="1"/>
+      <c r="F49" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="G49" s="5"/>
+      <c r="H49" s="5"/>
+    </row>
+    <row r="50" spans="1:8">
+      <c r="A50" s="26"/>
+      <c r="B50" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D50" s="1">
+        <v>1</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="F50" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="G50" s="5"/>
+      <c r="H50" s="5"/>
+    </row>
+    <row r="51" spans="1:8">
+      <c r="A51" s="26"/>
+      <c r="B51" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D51" s="1">
+        <v>1</v>
+      </c>
+      <c r="E51" s="1"/>
+      <c r="F51" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="G51" s="5"/>
+      <c r="H51" s="5"/>
+    </row>
+    <row r="52" spans="1:8">
+      <c r="A52" s="26"/>
+      <c r="B52" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C52" s="1"/>
+      <c r="D52" s="1">
+        <v>1</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F52" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="G52" s="5"/>
+      <c r="H52" s="5"/>
+    </row>
+    <row r="53" spans="1:8">
+      <c r="A53" s="26"/>
+      <c r="B53" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D53" s="4"/>
+      <c r="E53" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F53" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="G53" s="5"/>
+      <c r="H53" s="5"/>
+    </row>
+    <row r="54" spans="1:8">
+      <c r="A54" s="26"/>
+      <c r="B54" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C54" s="4"/>
+      <c r="D54" s="4">
+        <v>1</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F54" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="G54" s="5"/>
+      <c r="H54" s="5"/>
+    </row>
+    <row r="55" spans="1:8">
+      <c r="A55" s="26"/>
+      <c r="B55" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C55" s="1"/>
+      <c r="D55" s="1">
+        <v>1</v>
+      </c>
+      <c r="E55" s="1"/>
+      <c r="F55" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="G55" s="5"/>
+      <c r="H55" s="5"/>
+    </row>
+    <row r="56" spans="1:8">
+      <c r="A56" s="26"/>
+      <c r="B56" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="D56" s="1">
+        <v>1</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="F56" s="21" t="s">
+        <v>253</v>
+      </c>
+      <c r="G56" s="5"/>
+      <c r="H56" s="5"/>
+    </row>
+    <row r="57" spans="1:8">
+      <c r="A57" s="26"/>
+      <c r="B57" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D57" s="1">
+        <v>2</v>
+      </c>
+      <c r="E57" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="F57" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="G57" s="5"/>
+      <c r="H57" s="5"/>
+    </row>
+    <row r="58" spans="1:8">
+      <c r="A58" s="26"/>
+      <c r="B58" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C58" s="1"/>
+      <c r="D58" s="1"/>
+      <c r="E58" s="1"/>
+      <c r="F58" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="G58" s="5"/>
+      <c r="H58" s="5"/>
+    </row>
+    <row r="59" spans="1:8">
+      <c r="A59" s="26"/>
+      <c r="B59" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C59" s="1"/>
+      <c r="D59" s="1">
+        <v>1</v>
+      </c>
+      <c r="E59" s="1"/>
+      <c r="F59" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="G59" s="5"/>
+      <c r="H59" s="5"/>
+    </row>
+    <row r="60" spans="1:8">
+      <c r="A60" s="27" t="s">
+        <v>217</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="D60" s="1">
+        <v>1</v>
+      </c>
+      <c r="E60" s="1"/>
+      <c r="F60" s="21"/>
+      <c r="G60" s="5"/>
+      <c r="H60" s="5"/>
+    </row>
+    <row r="61" spans="1:8">
+      <c r="A61" s="28"/>
+      <c r="B61" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="D61" s="1">
+        <v>1</v>
+      </c>
+      <c r="E61" s="1"/>
+      <c r="F61" s="21"/>
+      <c r="G61" s="5"/>
+      <c r="H61" s="5"/>
+    </row>
+    <row r="62" spans="1:8" ht="15" customHeight="1">
+      <c r="A62" s="28"/>
+      <c r="B62" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D62" s="1">
+        <v>2</v>
+      </c>
+      <c r="E62" s="1"/>
+      <c r="F62" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="G62" s="5"/>
+      <c r="H62" s="5"/>
+    </row>
+    <row r="63" spans="1:8">
+      <c r="A63" s="28"/>
+      <c r="B63" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D63" s="1">
+        <v>1</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F63" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="G63" s="5"/>
+      <c r="H63" s="5"/>
+    </row>
+    <row r="64" spans="1:8">
+      <c r="A64" s="28"/>
+      <c r="B64" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D64" s="1">
+        <v>1</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F64" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="G64" s="5"/>
+      <c r="H64" s="5"/>
+    </row>
+    <row r="65" spans="1:8">
+      <c r="A65" s="28"/>
+      <c r="B65" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D65" s="1">
+        <v>1</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="F65" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="G65" s="5"/>
+      <c r="H65" s="5"/>
+    </row>
+    <row r="66" spans="1:8">
+      <c r="A66" s="28"/>
+      <c r="B66" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D66" s="1">
+        <v>1</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="F66" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="G66" s="5"/>
+      <c r="H66" s="5"/>
+    </row>
+    <row r="67" spans="1:8">
+      <c r="A67" s="28"/>
+      <c r="B67" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D67" s="1"/>
+      <c r="E67" s="1"/>
+      <c r="F67" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="G67" s="5"/>
+      <c r="H67" s="5"/>
+    </row>
+    <row r="68" spans="1:8">
+      <c r="A68" s="28"/>
+      <c r="B68" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D68" s="1"/>
+      <c r="E68" s="1"/>
+      <c r="F68" s="10"/>
+      <c r="G68" s="5"/>
+      <c r="H68" s="5"/>
+    </row>
+    <row r="69" spans="1:8">
+      <c r="A69" s="28"/>
+      <c r="B69" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="C69" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="D69" s="8"/>
+      <c r="E69" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="F69" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="G69" s="3"/>
+      <c r="H69" s="5"/>
+    </row>
+    <row r="70" spans="1:8">
+      <c r="A70" s="28"/>
+      <c r="B70" s="26"/>
+      <c r="C70" s="26"/>
+      <c r="D70" s="8"/>
+      <c r="E70" s="26"/>
+      <c r="F70" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="G70" s="5"/>
+      <c r="H70" s="5"/>
+    </row>
+    <row r="71" spans="1:8">
+      <c r="A71" s="29"/>
+      <c r="B71" s="26"/>
+      <c r="C71" s="26"/>
+      <c r="D71" s="8"/>
+      <c r="E71" s="26"/>
+      <c r="F71" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="G71" s="5"/>
+      <c r="H71" s="5"/>
+    </row>
+    <row r="72" spans="1:8">
+      <c r="G72" s="5"/>
+      <c r="H72" s="5"/>
+    </row>
+    <row r="73" spans="1:8">
+      <c r="B73" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C73" s="5"/>
+      <c r="D73" s="5"/>
+      <c r="E73" s="5"/>
+      <c r="F73" s="5"/>
+      <c r="G73" s="5"/>
+      <c r="H73" s="5"/>
+    </row>
+    <row r="74" spans="1:8">
+      <c r="B74" s="5"/>
+      <c r="C74" s="5"/>
+      <c r="D74" s="5"/>
+      <c r="E74" s="5"/>
+      <c r="F74" s="6"/>
+      <c r="G74" s="5"/>
+      <c r="H74" s="5"/>
+    </row>
+    <row r="75" spans="1:8">
+      <c r="B75" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C75" s="1"/>
+      <c r="D75" s="1"/>
+      <c r="E75" s="1"/>
+      <c r="F75" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="G75" s="5"/>
+      <c r="H75" s="5"/>
+    </row>
+    <row r="76" spans="1:8">
+      <c r="B76" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C76" s="1"/>
+      <c r="D76" s="1"/>
+      <c r="E76" s="1"/>
+      <c r="F76" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="G76" s="5"/>
+      <c r="H76" s="5"/>
+    </row>
+    <row r="77" spans="1:8">
+      <c r="B77" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C77" s="1"/>
+      <c r="D77" s="1"/>
+      <c r="E77" s="1"/>
+      <c r="F77" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="G77" s="5"/>
+      <c r="H77" s="5"/>
+    </row>
+    <row r="78" spans="1:8">
+      <c r="B78" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C78" s="1"/>
+      <c r="D78" s="1">
+        <v>1</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F78" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="G78" s="5"/>
+      <c r="H78" s="5"/>
+    </row>
+    <row r="79" spans="1:8">
+      <c r="B79" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C79" s="1"/>
+      <c r="D79" s="1">
+        <v>1</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F79" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="G79" s="5"/>
+      <c r="H79" s="5"/>
+    </row>
+    <row r="80" spans="1:8">
+      <c r="B80" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C80" s="1"/>
+      <c r="D80" s="1">
+        <v>1</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F80" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="G80" s="5"/>
+      <c r="H80" s="5"/>
+    </row>
+    <row r="81" spans="2:8">
+      <c r="B81" s="1"/>
+      <c r="C81" s="1"/>
+      <c r="D81" s="1"/>
+      <c r="E81" s="1"/>
+      <c r="F81" s="21"/>
+      <c r="G81" s="5"/>
+      <c r="H81" s="5"/>
+    </row>
+    <row r="82" spans="2:8">
+      <c r="B82" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="C82" s="1"/>
+      <c r="D82" s="1"/>
+      <c r="E82" s="1"/>
+      <c r="F82" s="10"/>
+      <c r="G82" s="5"/>
+      <c r="H82" s="5"/>
+    </row>
+    <row r="83" spans="2:8">
+      <c r="B83" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D83" s="1"/>
+      <c r="E83" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F83" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="G83" s="5"/>
+      <c r="H83" s="5"/>
+    </row>
+    <row r="84" spans="2:8">
+      <c r="B84" s="1"/>
+      <c r="C84" s="1"/>
+      <c r="D84" s="1"/>
+      <c r="E84" s="1"/>
+      <c r="F84" s="10"/>
+      <c r="G84" s="5"/>
+      <c r="H84" s="5"/>
+    </row>
+    <row r="85" spans="2:8">
+      <c r="B85" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C85" s="1"/>
+      <c r="D85" s="1"/>
+      <c r="E85" s="1"/>
+      <c r="F85" s="10"/>
+      <c r="G85" s="5"/>
+      <c r="H85" s="5"/>
+    </row>
+    <row r="86" spans="2:8">
+      <c r="B86" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C86" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D86" s="4"/>
+      <c r="E86" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F86" s="21" t="s">
+        <v>98</v>
+      </c>
+      <c r="G86" s="5"/>
+      <c r="H86" s="5"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A49:A59"/>
+    <mergeCell ref="A60:A71"/>
+    <mergeCell ref="B69:B71"/>
+    <mergeCell ref="C69:C71"/>
+    <mergeCell ref="E69:E71"/>
+  </mergeCells>
+  <phoneticPr fontId="2"/>
+  <hyperlinks>
+    <hyperlink ref="B26" r:id="rId1"/>
+    <hyperlink ref="C3" r:id="rId2"/>
+    <hyperlink ref="F69" r:id="rId3"/>
+    <hyperlink ref="F70" r:id="rId4"/>
+    <hyperlink ref="F71" r:id="rId5"/>
+    <hyperlink ref="F63" r:id="rId6"/>
+    <hyperlink ref="F64" r:id="rId7"/>
+    <hyperlink ref="F65" r:id="rId8"/>
+    <hyperlink ref="F66" r:id="rId9"/>
+    <hyperlink ref="F67" r:id="rId10"/>
+    <hyperlink ref="F62" r:id="rId11"/>
+    <hyperlink ref="F49" r:id="rId12"/>
+    <hyperlink ref="F55" r:id="rId13"/>
+    <hyperlink ref="F59" r:id="rId14"/>
+    <hyperlink ref="F52" r:id="rId15"/>
+    <hyperlink ref="F50" r:id="rId16"/>
+    <hyperlink ref="F51" r:id="rId17"/>
+    <hyperlink ref="F53" r:id="rId18"/>
+    <hyperlink ref="F54" r:id="rId19"/>
+    <hyperlink ref="F57" r:id="rId20"/>
+    <hyperlink ref="F29" r:id="rId21" display="https://e3d-online.com/titan-extruder"/>
+    <hyperlink ref="F76" r:id="rId22"/>
+    <hyperlink ref="F75" r:id="rId23"/>
+    <hyperlink ref="F77" r:id="rId24"/>
+    <hyperlink ref="F83" r:id="rId25"/>
+    <hyperlink ref="F86" r:id="rId26" display="https://ja.aliexpress.com/item/Diamond-3D-Printer-Extruder-Hotend-3D-V6-heatsink-3-IN-1-OUT-Multi-Nozzle-KOSSEL-full/32779018878.html?ws_ab_test=searchweb0_0,searchweb201602_2_10152_10065_10151_10344_10068_10869_10342_10868_10343_10340_10059_10341_10696_100031_10084_10083_10103_10618_10624_10307_10623_10622_10621_10620,searchweb201603_35,ppcSwitch_5&amp;algo_expid=6185831c-0c70-4066-93d3-973702570272-2&amp;algo_pvid=6185831c-0c70-4066-93d3-973702570272&amp;priceBeautifyAB=0"/>
+    <hyperlink ref="F58" r:id="rId27"/>
+    <hyperlink ref="F56" r:id="rId28"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId29"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:E54"/>
+  <sheetViews>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H11" sqref="H10:H11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="47.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:5">
+      <c r="B2" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5">
+      <c r="B3" s="11" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5">
+      <c r="B4" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+    </row>
+    <row r="5" spans="2:5">
+      <c r="B5" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+    </row>
+    <row r="6" spans="2:5">
+      <c r="B6" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+    </row>
+    <row r="7" spans="2:5">
+      <c r="B7" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5">
+      <c r="B8" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C8" s="1">
+        <v>1</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="E8" s="1"/>
+    </row>
+    <row r="9" spans="2:5">
+      <c r="B9" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C9" s="1">
+        <v>1</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="E9" s="1"/>
+    </row>
+    <row r="10" spans="2:5">
+      <c r="B10" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C10" s="1">
+        <v>1</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="E10" s="1"/>
+    </row>
+    <row r="11" spans="2:5">
+      <c r="B11" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C11" s="1">
+        <v>1</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="E11" s="1"/>
+    </row>
+    <row r="12" spans="2:5">
+      <c r="B12" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C12" s="1">
+        <v>1</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="E12" s="1"/>
+    </row>
+    <row r="13" spans="2:5">
+      <c r="B13" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C13" s="1">
+        <v>4</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="E13" s="1"/>
+    </row>
+    <row r="14" spans="2:5">
+      <c r="B14" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C14" s="1">
+        <v>1</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5">
+      <c r="B15" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C15" s="1">
+        <v>1</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5">
+      <c r="B16" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C16" s="1">
+        <v>1</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5">
+      <c r="B17" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="C17" s="1">
+        <v>1</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="E17" s="1"/>
+    </row>
+    <row r="18" spans="2:5">
+      <c r="B18" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C18" s="1">
+        <v>1</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="E18" s="1"/>
+    </row>
+    <row r="19" spans="2:5">
+      <c r="B19" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C19" s="1">
+        <v>1</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="E19" s="1"/>
+    </row>
+    <row r="20" spans="2:5">
+      <c r="B20" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="C20" s="1">
+        <v>1</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5">
+      <c r="B21" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C21" s="1">
+        <v>1</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5">
+      <c r="B22" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C22" s="1">
+        <v>1</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5">
+      <c r="B23" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="C23" s="1">
+        <v>1</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5">
+      <c r="B24" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="C24" s="1">
+        <v>1</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="E24" s="1"/>
+    </row>
+    <row r="25" spans="2:5">
+      <c r="B25" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="C25" s="1">
+        <v>1</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="E25" s="1"/>
+    </row>
+    <row r="26" spans="2:5">
+      <c r="B26" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C26" s="1">
+        <v>1</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="E26" s="1"/>
+    </row>
+    <row r="27" spans="2:5">
+      <c r="B27" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="C27" s="1">
+        <v>1</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="E27" s="1"/>
+    </row>
+    <row r="28" spans="2:5">
+      <c r="B28" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C28" s="1">
+        <v>1</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5">
+      <c r="B29" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C29" s="1">
+        <v>1</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="E29" s="1"/>
+    </row>
+    <row r="30" spans="2:5">
+      <c r="B30" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C30" s="1">
+        <v>1</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="E30" s="1"/>
+    </row>
+    <row r="31" spans="2:5">
+      <c r="B31" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C31" s="1">
+        <v>1</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="E31" s="1"/>
+    </row>
+    <row r="32" spans="2:5">
+      <c r="B32" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="C32" s="1">
+        <v>1</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="E32" s="1"/>
+    </row>
+    <row r="33" spans="2:5">
+      <c r="B33" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="C33" s="1">
+        <v>1</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="E33" s="1"/>
+    </row>
+    <row r="34" spans="2:5">
+      <c r="B34" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C34" s="1">
+        <v>1</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="E34" s="1"/>
+    </row>
+    <row r="35" spans="2:5">
+      <c r="B35" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="C35" s="1">
+        <v>1</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="E35" s="1"/>
+    </row>
+    <row r="36" spans="2:5">
+      <c r="B36" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="C36" s="1">
+        <v>1</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="E36" s="1"/>
+    </row>
+    <row r="37" spans="2:5">
+      <c r="B37" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="C37" s="1">
+        <v>6</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="E37" s="1"/>
+    </row>
+    <row r="38" spans="2:5">
+      <c r="B38" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="C38" s="1">
+        <v>25</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="E38" s="1"/>
+    </row>
+    <row r="39" spans="2:5">
+      <c r="B39" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="C39" s="1">
+        <v>1</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="E39" s="1"/>
+    </row>
+    <row r="40" spans="2:5">
+      <c r="B40" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="C40" s="1">
+        <v>1</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="E40" s="1"/>
+    </row>
+    <row r="41" spans="2:5">
+      <c r="B41" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="C41" s="1">
+        <v>3</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="E41" s="1"/>
+    </row>
+    <row r="42" spans="2:5">
+      <c r="B42" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="C42" s="1">
+        <v>1</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="E42" s="1"/>
+    </row>
+    <row r="43" spans="2:5">
+      <c r="B43" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="C43" s="1">
+        <v>1</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="E43" s="1"/>
+    </row>
+    <row r="44" spans="2:5">
+      <c r="B44" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="C44" s="1">
+        <v>5</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="45" spans="2:5">
+      <c r="B45" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="C45" s="1">
+        <v>3</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="E45" s="1"/>
+    </row>
+    <row r="46" spans="2:5">
+      <c r="B46" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="C46" s="1">
+        <v>5</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="E46" s="1"/>
+    </row>
+    <row r="47" spans="2:5">
+      <c r="B47" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="C47" s="1">
+        <v>5</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="E47" s="1"/>
+    </row>
+    <row r="48" spans="2:5">
+      <c r="B48" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="C48" s="1">
+        <v>1</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="E48" s="1"/>
+    </row>
+    <row r="49" spans="2:5">
+      <c r="B49" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="C49" s="1">
+        <v>5</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="E49" s="1"/>
+    </row>
+    <row r="50" spans="2:5">
+      <c r="B50" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="C50" s="1">
+        <v>5</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="E50" s="1"/>
+    </row>
+    <row r="51" spans="2:5">
+      <c r="B51" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C51" s="1">
+        <v>5</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="E51" s="1"/>
+    </row>
+    <row r="52" spans="2:5">
+      <c r="B52" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="C52" s="1">
+        <v>5</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="E52" s="1"/>
+    </row>
+    <row r="53" spans="2:5">
+      <c r="B53" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="C53" s="1">
+        <v>5</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="E53" s="1"/>
+    </row>
+    <row r="54" spans="2:5">
+      <c r="B54" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C54" s="1">
+        <v>3</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="E54" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <hyperlinks>
+    <hyperlink ref="B3" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:H54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B12" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F54" sqref="F54"/>
+    <sheetView topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C51" sqref="C51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="36.81640625" customWidth="1"/>
-    <col min="3" max="3" width="29.453125" customWidth="1"/>
-    <col min="4" max="4" width="5.81640625" customWidth="1"/>
-    <col min="5" max="5" width="12.453125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="36.7265625" customWidth="1"/>
-    <col min="7" max="7" width="11.453125" customWidth="1"/>
+    <col min="2" max="2" width="36.85546875" customWidth="1"/>
+    <col min="3" max="3" width="29.42578125" customWidth="1"/>
+    <col min="4" max="4" width="5.85546875" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="36.7109375" customWidth="1"/>
+    <col min="7" max="7" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:8">
       <c r="B2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:8">
       <c r="B5" s="1" t="s">
         <v>66</v>
       </c>
@@ -788,7 +3244,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:8">
       <c r="B6" s="1" t="s">
         <v>65</v>
       </c>
@@ -805,7 +3261,7 @@
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:8">
       <c r="B7" s="1" t="s">
         <v>71</v>
       </c>
@@ -822,19 +3278,19 @@
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
     </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:8">
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
       <c r="F8" s="6"/>
     </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:8">
       <c r="B9" s="3" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:8">
       <c r="B10" s="1" t="s">
         <v>3</v>
       </c>
@@ -853,7 +3309,7 @@
       <c r="G10" s="4"/>
       <c r="H10" s="1"/>
     </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:8">
       <c r="B11" s="1" t="s">
         <v>1</v>
       </c>
@@ -864,7 +3320,7 @@
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
     </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:8">
       <c r="B12" s="1" t="s">
         <v>2</v>
       </c>
@@ -875,7 +3331,7 @@
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
     </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:8">
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
@@ -884,7 +3340,7 @@
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
     </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:8">
       <c r="B14" s="1" t="s">
         <v>36</v>
       </c>
@@ -899,7 +3355,7 @@
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
     </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:8">
       <c r="B15" s="1" t="s">
         <v>30</v>
       </c>
@@ -918,7 +3374,7 @@
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
     </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:8">
       <c r="B16" s="1" t="s">
         <v>27</v>
       </c>
@@ -937,7 +3393,7 @@
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:8">
       <c r="B17" s="1" t="s">
         <v>31</v>
       </c>
@@ -956,7 +3412,7 @@
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:8">
       <c r="B18" s="1" t="s">
         <v>32</v>
       </c>
@@ -975,7 +3431,7 @@
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:8">
       <c r="B19" s="1" t="s">
         <v>24</v>
       </c>
@@ -990,7 +3446,7 @@
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:8">
       <c r="B20" s="1" t="s">
         <v>21</v>
       </c>
@@ -1003,15 +3459,15 @@
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B21" s="8" t="s">
+    <row r="21" spans="2:8">
+      <c r="B21" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="C21" s="8" t="s">
+      <c r="C21" s="26" t="s">
         <v>6</v>
       </c>
       <c r="D21" s="7"/>
-      <c r="E21" s="8" t="s">
+      <c r="E21" s="26" t="s">
         <v>11</v>
       </c>
       <c r="F21" s="2" t="s">
@@ -1020,37 +3476,37 @@
       <c r="G21" s="4"/>
       <c r="H21" s="1"/>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B22" s="8"/>
-      <c r="C22" s="8"/>
+    <row r="22" spans="2:8">
+      <c r="B22" s="26"/>
+      <c r="C22" s="26"/>
       <c r="D22" s="7"/>
-      <c r="E22" s="8"/>
+      <c r="E22" s="26"/>
       <c r="F22" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B23" s="8"/>
-      <c r="C23" s="8"/>
+    <row r="23" spans="2:8">
+      <c r="B23" s="26"/>
+      <c r="C23" s="26"/>
       <c r="D23" s="7"/>
-      <c r="E23" s="8"/>
+      <c r="E23" s="26"/>
       <c r="F23" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:8">
       <c r="G25" s="3"/>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:8">
       <c r="B26" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:8">
       <c r="B27" s="1" t="s">
         <v>12</v>
       </c>
@@ -1067,7 +3523,7 @@
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:8">
       <c r="B28" s="1" t="s">
         <v>15</v>
       </c>
@@ -1086,7 +3542,7 @@
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
     </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:8">
       <c r="B29" s="1" t="s">
         <v>20</v>
       </c>
@@ -1103,7 +3559,7 @@
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
     </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:8">
       <c r="B30" s="4" t="s">
         <v>62</v>
       </c>
@@ -1122,7 +3578,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:8">
       <c r="B31" s="4" t="s">
         <v>76</v>
       </c>
@@ -1141,7 +3597,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:8">
       <c r="B32" s="4" t="s">
         <v>80</v>
       </c>
@@ -1162,7 +3618,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:8">
       <c r="B33" s="1" t="s">
         <v>51</v>
       </c>
@@ -1179,7 +3635,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:8">
       <c r="B34" s="4" t="s">
         <v>84</v>
       </c>
@@ -1200,7 +3656,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:8">
       <c r="B35" s="4" t="s">
         <v>54</v>
       </c>
@@ -1217,12 +3673,12 @@
         <v>97</v>
       </c>
     </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:8">
       <c r="B41" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:8">
       <c r="B42" s="1" t="s">
         <v>44</v>
       </c>
@@ -1235,7 +3691,7 @@
       <c r="G42" s="1"/>
       <c r="H42" s="1"/>
     </row>
-    <row r="43" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:8">
       <c r="B43" s="1" t="s">
         <v>46</v>
       </c>
@@ -1248,7 +3704,7 @@
       <c r="G43" s="1"/>
       <c r="H43" s="1"/>
     </row>
-    <row r="44" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:8">
       <c r="B44" s="4" t="s">
         <v>47</v>
       </c>
@@ -1261,7 +3717,7 @@
       <c r="G44" s="1"/>
       <c r="H44" s="1"/>
     </row>
-    <row r="45" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:8">
       <c r="B45" s="1" t="s">
         <v>50</v>
       </c>
@@ -1274,7 +3730,7 @@
       <c r="G45" s="1"/>
       <c r="H45" s="1"/>
     </row>
-    <row r="46" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:8">
       <c r="B46" s="1" t="s">
         <v>93</v>
       </c>
@@ -1291,7 +3747,7 @@
       <c r="G46" s="4"/>
       <c r="H46" s="1"/>
     </row>
-    <row r="47" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:8">
       <c r="B47" s="1" t="s">
         <v>94</v>
       </c>
@@ -1308,7 +3764,7 @@
       <c r="G47" s="1"/>
       <c r="H47" s="1"/>
     </row>
-    <row r="48" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:8">
       <c r="B48" s="1" t="s">
         <v>95</v>
       </c>
@@ -1325,19 +3781,19 @@
       <c r="G48" s="1"/>
       <c r="H48" s="1"/>
     </row>
-    <row r="49" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:6">
       <c r="B49" s="5"/>
       <c r="C49" s="5"/>
       <c r="D49" s="5"/>
       <c r="E49" s="5"/>
       <c r="F49" s="6"/>
     </row>
-    <row r="50" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:6">
       <c r="B50" s="3" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="51" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:6">
       <c r="B51" s="1" t="s">
         <v>55</v>
       </c>
@@ -1352,12 +3808,12 @@
         <v>59</v>
       </c>
     </row>
-    <row r="53" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:6">
       <c r="B53" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="54" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:6">
       <c r="B54" s="4" t="s">
         <v>39</v>
       </c>
@@ -1380,60 +3836,34 @@
   </mergeCells>
   <phoneticPr fontId="2"/>
   <hyperlinks>
-    <hyperlink ref="F21" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="F22" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="F23" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="F27" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="F15" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="F16" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="F17" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="F18" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="F19" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="F42" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="F44" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="F43" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="F45" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="F33" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="F35" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="F51" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="F30" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="F28" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="F29" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="F14" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="F6" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="F7" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
-    <hyperlink ref="F31" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
-    <hyperlink ref="F32" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
-    <hyperlink ref="F34" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
-    <hyperlink ref="F54" r:id="rId26" display="https://ja.aliexpress.com/item/Diamond-3D-Printer-Extruder-Hotend-3D-V6-heatsink-3-IN-1-OUT-Multi-Nozzle-KOSSEL-full/32779018878.html?ws_ab_test=searchweb0_0,searchweb201602_2_10152_10065_10151_10344_10068_10869_10342_10868_10343_10340_10059_10341_10696_100031_10084_10083_10103_10618_10624_10307_10623_10622_10621_10620,searchweb201603_35,ppcSwitch_5&amp;algo_expid=6185831c-0c70-4066-93d3-973702570272-2&amp;algo_pvid=6185831c-0c70-4066-93d3-973702570272&amp;priceBeautifyAB=0" xr:uid="{E4B056A0-B5A2-42BD-B245-EACB64D7DCCB}"/>
+    <hyperlink ref="F21" r:id="rId1"/>
+    <hyperlink ref="F22" r:id="rId2"/>
+    <hyperlink ref="F23" r:id="rId3"/>
+    <hyperlink ref="F27" r:id="rId4"/>
+    <hyperlink ref="F15" r:id="rId5"/>
+    <hyperlink ref="F16" r:id="rId6"/>
+    <hyperlink ref="F17" r:id="rId7"/>
+    <hyperlink ref="F18" r:id="rId8"/>
+    <hyperlink ref="F19" r:id="rId9"/>
+    <hyperlink ref="F42" r:id="rId10"/>
+    <hyperlink ref="F44" r:id="rId11"/>
+    <hyperlink ref="F43" r:id="rId12"/>
+    <hyperlink ref="F45" r:id="rId13"/>
+    <hyperlink ref="F33" r:id="rId14"/>
+    <hyperlink ref="F35" r:id="rId15"/>
+    <hyperlink ref="F51" r:id="rId16"/>
+    <hyperlink ref="F30" r:id="rId17"/>
+    <hyperlink ref="F28" r:id="rId18"/>
+    <hyperlink ref="F29" r:id="rId19"/>
+    <hyperlink ref="F14" r:id="rId20"/>
+    <hyperlink ref="F6" r:id="rId21"/>
+    <hyperlink ref="F7" r:id="rId22"/>
+    <hyperlink ref="F31" r:id="rId23"/>
+    <hyperlink ref="F32" r:id="rId24"/>
+    <hyperlink ref="F34" r:id="rId25"/>
+    <hyperlink ref="F54" r:id="rId26" display="https://ja.aliexpress.com/item/Diamond-3D-Printer-Extruder-Hotend-3D-V6-heatsink-3-IN-1-OUT-Multi-Nozzle-KOSSEL-full/32779018878.html?ws_ab_test=searchweb0_0,searchweb201602_2_10152_10065_10151_10344_10068_10869_10342_10868_10343_10340_10059_10341_10696_100031_10084_10083_10103_10618_10624_10307_10623_10622_10621_10620,searchweb201603_35,ppcSwitch_5&amp;algo_expid=6185831c-0c70-4066-93d3-973702570272-2&amp;algo_pvid=6185831c-0c70-4066-93d3-973702570272&amp;priceBeautifyAB=0"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId27"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
-  <sheetData/>
-  <phoneticPr fontId="2"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
-  <sheetData/>
-  <phoneticPr fontId="2"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>